--- a/052c doc/数据统计.xlsx
+++ b/052c doc/数据统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\wd\FG-052D\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04FC058-74FA-4FBE-8726-20AD8E56ADF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264FD381-56B9-4118-9044-E6709F0A77FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-5055" windowWidth="16440" windowHeight="28440" xr2:uid="{6E3054F1-41E4-461C-8D38-11BBB5C89CB2}"/>
   </bookViews>
@@ -2028,13 +2028,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>442912</xdr:colOff>
+      <xdr:colOff>471487</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
+      <xdr:colOff>242887</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -2063,16 +2063,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>871537</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2399,7 +2399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1C0ECC-7FF3-466F-99DA-D94AC4E8E6DE}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D40" sqref="D40:D41"/>
     </sheetView>
   </sheetViews>
